--- a/biology/Zoologie/Dvinosauria/Dvinosauria.xlsx
+++ b/biology/Zoologie/Dvinosauria/Dvinosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dvinosauria sont un sous-ordre éteint d'amphibiens temnospondyles qui ont vécu de la fin du Carbonifère au début du Trias. Ils représentent un groupe primitif de tétrapodes semi ou entièrement aquatiques qui prospéraient et étaient plus communs pendant la période permienne. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses traits distinctifs correspondent à une réduction de l'entaille otique et la présence de 28 vertèbres ou plus. Le clade a été nommé par Adam M. Yates (d) et Anne Warren (d) en 2000.
 </t>
@@ -542,12 +556,14 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cladogrammes sans références
 La famille des Eobrachyopidae est paraphylétique.
-Le cladogramme de Marsicano et al. établit en 2021[1].
+Le cladogramme de Marsicano et al. établit en 2021.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Adam M. Yates et A. Anne Warren, « The phylogeny of the ‘higher’ temnospondyls (Vertebrata: Choanata) and its implications for the monophyly and origins of the Stereospondyli », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 128, no 1,‎ janvier 2000, p. 77-121 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1111/J.1096-3642.2000.TB00650.X, lire en ligne)</t>
         </is>
